--- a/data_4.xlsx
+++ b/data_4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Place</t>
   </si>
@@ -148,7 +148,10 @@
     <t>LAI</t>
   </si>
   <si>
-    <t xml:space="preserve">TAir </t>
+    <t>TAir (C)</t>
+  </si>
+  <si>
+    <t>TOut(C)</t>
   </si>
   <si>
     <t>CO2Air_real (ppm)</t>
@@ -171,10 +174,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -200,29 +203,23 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,9 +240,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,31 +257,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,21 +287,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,7 +310,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,7 +326,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,7 +355,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,7 +391,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,13 +439,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,31 +499,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,109 +523,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,71 +546,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -643,10 +581,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -664,131 +667,131 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1135,8 +1138,8 @@
   <sheetPr/>
   <dimension ref="A1:AX2015"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="AQ5" sqref="AQ5"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AT1" sqref="AT1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1297,24 +1300,24 @@
         <v>44</v>
       </c>
       <c r="AT1" s="6" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="AU1" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AV1" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AW1" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AX1" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:50">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2">
         <f>AV2</f>
